--- a/CtfListingSnapshotValidator.xlsx
+++ b/CtfListingSnapshotValidator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>Token</t>
   </si>
@@ -353,20 +353,6 @@
         <family val="1"/>
       </rPr>
       <t>.".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given it may consist of digits only. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DELAY_MINSdoesn't consist of digits only: (&lt;DELAY_MINS&gt;).".If given it must be equal or greater than 0. If not, than error message "DELAY_MINS must be greater or equal to '0': (&lt;DELAY_MINS&gt;).".</t>
     </r>
   </si>
   <si>
@@ -569,6 +555,1052 @@
   </si>
   <si>
     <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CORP.ACTION.IND is not an integer: (&lt;CORP.ACTION.IND&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given it must consist of digits only. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MKT.TYPE doesn't consist of digits only: (&lt;MKT.TYPE&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.".
+If given it should be greater than zero. If not, error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"MKT.TYPE must be greater than zero: (&lt;MKT.TYPE&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given it must consist of digits and exactly one decimal point.  It not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CONTRACT.SIZE doesn't consist of digits with exactly 1 decimal point.: (&lt;CONTRACT.SIZE&gt;)&gt;.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must consist of digits only. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENUM.CONTRACT.UNITS doesn't consist of digits only: (&lt;ENUM.CONTRACT.UNITS&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If more than 29 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INSTR.LOCAL_TYPE is more than 29 characters long: (&lt;INSTR.LOCAL_TYPE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must consist of digits only. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PRICE.UNIT.CODE doesn't consist of digits only: (&lt;PRICE.UNIT.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 20 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SYMBOL.UNDERLYING.TICKER is more than 20 characters long: (&lt;SYMBOL.UNDERLYING.TICKER&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GICS is not an integer: (&lt;GICS&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must be a valid Isin. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ISIN is not a valid Isin: (&lt;ISIN&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 8 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SEDOL is more than 8 characters long: (&lt;SEDOL&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 30 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INSTR_NAME is more than 30 characters long: (&lt;INSTR_NAME&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ENUM.SRC.PRIMARY.ID is not an integer: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(&lt;ENUM.SRC.PRIMARY.ID&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".
+We decided not to check this attribute against the CTFSources-table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENUM.SRC.UNDERLYING.ID is not an integer: (&lt;ENUM.SRC.UNDERLYING.ID&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">". 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>We decided not to check this attribute against the CTFSources-table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must be greater or equal to zero. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENUM.INSTR.TYPE must be greater or equal to zero: (&lt;ENUM.INSTR.TYPE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 29 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FUND.LOCAL_IND_SECTOR has more than 29 characters: (&lt;FUND.LOCAL_IND_SECTOR&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 200 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FUND.INDEX_MEMBERSHIP is more than 200 characters long: (&lt;FUND.INDEX_MEMBERSHIP&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 25 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TRADE.CODE is more than 25 characters long: (&lt;TRADE.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If more than 65 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LOCAL.CODE is more than 65 characters long: (&lt;LOCAL.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 40 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SYMBOL.EXCH.TICKER is more than 40 characters long: (&lt;SYMBOL.EXCH.TICKER&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 15 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INCORPORATION.COUNTRY is more than 15 characters long: (&lt;INCORPORATION.COUNTRY&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 29 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LOCAL.UNDERLYING.CODE is more than 29 characters long: (&lt;LOCAL.UNDERLYING.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must be a valid Isin. If not, warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF9900"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UNDERLYING.ISIN is not a valid Isin: (&lt;UNDERLYING.ISIN&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 160 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INSTR_NAME2 is more than 160 characters long: (&lt;INSTR_NAME2&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RTSD.TRADING.PERIOD is not an integer: (&lt;RTSD.TRADING.PERIOD&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 30 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RTSD.ALT.EXCH.IDENTIFIER1 is more than 30 characters long: (&lt;RTSD.ALT.EXCH.IDENTIFIER1&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 35 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RTSD.ALT.EXCH.IDENTIFIER2 is more than 35 characters long: (&lt;RTSD.ALT.EXCH.IDENTIFIER2&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 4 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MIC.CODE is more than 4 characters long: (&lt;MIC.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>We decided not to check this attribute against the Market-table with ISO-10383 as provider..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 6 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CFI.CODE is more than 6 characters long: (&lt;CFI.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EXER.STYLE is not an integer: (&lt;EXER.STYLE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must be "P" or "C". If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PUT.CALL.IND not equal to 'P' or 'C': (&lt;PUT.CALL.IND&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 240 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VARIABLE.TICK.SIZE is more than 240 characters long: (&lt;VARIABLE.TICK.SIZE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 4 characters, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OPERATING.MIC is more than 4 characters long: (&lt;OPERATING.MIC&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>We decided not to check this attribute against the Market-table with ISO-10383 as provider..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must be a valid Isin. If not, warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF9900"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EXCH.PRODUCT.ROOT.ISIN is not a valid Isin: (&lt;EXCH.PRODUCT.ROOT.ISIN&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and more than 1 character, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FUND.RECORD.STATUS is more than 1 character long: (&lt;FUND.RECORD.STATUS&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENUM.MKT.SUB.ID is not an integer: (&lt;ENUM.MKT.SUB.ID&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must contain of digits and a maximum of one decimal point. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TICK.SIZE is not a float: (&lt;TICK.SIZE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given, it must contain of digits and a maximum of one decimal point. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOMINAL.VALUE is not a float: (&lt;NOMINAL.VALUE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VOLUME.UNITS is not an integer: (&lt;VOLUME.UNITS&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If given and not exists of digits only, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RECORD.STALE.IND is not an integer: (&lt;RECORD.STALE.IND&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>FeedId</t>
+  </si>
+  <si>
+    <t>ProviderId</t>
+  </si>
+  <si>
+    <t>ProviderCode</t>
+  </si>
+  <si>
+    <t>Schema Name</t>
+  </si>
+  <si>
+    <t>FileType</t>
+  </si>
+  <si>
+    <t>Embargo</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>idc</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>CSP CTF listing information</t>
+  </si>
+  <si>
+    <t>CSV with "|" as separator and a header record.</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t>If given it may consist of digits only. If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DELAY_MINSdoesn't consist of digits only: (&lt;DELAY_MINS&gt;)."   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> .If given it must be equal or greater than 0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> If not, than error message "DELAY_MINS must be greater or equal to '0': (&lt;DELAY_MINS&gt;).".</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>If given it should be greater than '0'. If not, error message "</t>
     </r>
     <r>
@@ -578,7 +1610,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FTSE.CLASSIFICATION.CODE must be greater or equal to zero: (&lt;FTSE.CLASSIFICATION.CODE&gt;).</t>
+      <t>FTSE.CLASSIFICATION.CODE must be greater zero: (&lt;FTSE.CLASSIFICATION.CODE&gt;).</t>
     </r>
     <r>
       <rPr>
@@ -629,6 +1661,18 @@
     </r>
   </si>
   <si>
+    <t>1-F--&gt; must be great than "0", 3-F--&gt; apears double value</t>
+  </si>
+  <si>
+    <t>Doesn't check</t>
+  </si>
+  <si>
+    <t>MARKET.ID.CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't passes zeros - not correct. Must be equal or greater than 0. </t>
+  </si>
+  <si>
     <r>
       <t>If given and not exists of digits only, than error message "</t>
     </r>
@@ -639,1016 +1683,102 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CORP.ACTION.IND is not an integer: (&lt;CORP.ACTION.IND&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given it must consist of digits only. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MKT.TYPE doesn't consist of digits only: (&lt;MKT.TYPE&gt;)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.".
-If given it should be greater than zero. If not, error message </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"MKT.TYPE must be greater than zero: (&lt;MKT.TYPE&gt;)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given it must consist of digits and exactly one decimal point.  It not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CONTRACT.SIZE doesn't consist of digits with exactly 1 decimal point.: (&lt;CONTRACT.SIZE&gt;)&gt;.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must consist of digits only. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ENUM.CONTRACT.UNITS doesn't consist of digits only: (&lt;ENUM.CONTRACT.UNITS&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If more than 29 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INSTR.LOCAL_TYPE is more than 29 characters long: (&lt;INSTR.LOCAL_TYPE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must consist of digits only. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PRICE.UNIT.CODE doesn't consist of digits only: (&lt;PRICE.UNIT.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 20 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SYMBOL.UNDERLYING.TICKER is more than 20 characters long: (&lt;SYMBOL.UNDERLYING.TICKER&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GICS is not an integer: (&lt;GICS&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must be a valid Isin. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ISIN is not a valid Isin: (&lt;ISIN&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 8 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SEDOL is more than 8 characters long: (&lt;SEDOL&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 30 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INSTR_NAME is more than 30 characters long: (&lt;INSTR_NAME&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ENUM.SRC.PRIMARY.ID is not an integer: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(&lt;ENUM.SRC.PRIMARY.ID&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".
-We decided not to check this attribute against the CTFSources-table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ENUM.SRC.UNDERLYING.ID is not an integer: (&lt;ENUM.SRC.UNDERLYING.ID&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">". 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>We decided not to check this attribute against the CTFSources-table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must be greater or equal to zero. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ENUM.INSTR.TYPE must be greater or equal to zero: (&lt;ENUM.INSTR.TYPE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 29 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FUND.LOCAL_IND_SECTOR has more than 29 characters: (&lt;FUND.LOCAL_IND_SECTOR&gt;)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 200 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FUND.INDEX_MEMBERSHIP is more than 200 characters long: (&lt;FUND.INDEX_MEMBERSHIP&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 25 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TRADE.CODE is more than 25 characters long: (&lt;TRADE.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If more than 65 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LOCAL.CODE is more than 65 characters long: (&lt;LOCAL.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 40 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SYMBOL.EXCH.TICKER is more than 40 characters long: (&lt;SYMBOL.EXCH.TICKER&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 15 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INCORPORATION.COUNTRY is more than 15 characters long: (&lt;INCORPORATION.COUNTRY&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 29 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LOCAL.UNDERLYING.CODE is more than 29 characters long: (&lt;LOCAL.UNDERLYING.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must be a valid Isin. If not, warning message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF9900"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UNDERLYING.ISIN is not a valid Isin: (&lt;UNDERLYING.ISIN&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 160 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INSTR_NAME2 is more than 160 characters long: (&lt;INSTR_NAME2&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RTSD.TRADING.PERIOD is not an integer: (&lt;RTSD.TRADING.PERIOD&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 30 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RTSD.ALT.EXCH.IDENTIFIER1 is more than 30 characters long: (&lt;RTSD.ALT.EXCH.IDENTIFIER1&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 35 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RTSD.ALT.EXCH.IDENTIFIER2 is more than 35 characters long: (&lt;RTSD.ALT.EXCH.IDENTIFIER2&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 4 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MIC.CODE is more than 4 characters long: (&lt;MIC.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
+      <t>MARKET.ID.CODE is not an integer: (&lt;MARKET.ID.CODE&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If a column name is missing, than error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The following tokens are missing: (&lt; missing columns&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If there are more column names, than warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>There are new tokens in the file: (&lt; new columns&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The file produced by the CtfSnapshotHandler is directly picked up by Nifi processes, the name of the resulting file is made up by the BIGHImportTransporter.
+Format of the filenames are:
+Listing-${ctfsource}-${now():format('yyyyMMddHHmmss')}.csv                 If not, error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect Filename: (&lt;name of file&gt;).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">".
 </t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>We decided not to check this attribute against the Market-table with ISO-10383 as provider..</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 6 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CFI.CODE is more than 6 characters long: (&lt;CFI.CODE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EXER.STYLE is not an integer: (&lt;EXER.STYLE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must be "P" or "C". If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PUT.CALL.IND not equal to 'P' or 'C': (&lt;PUT.CALL.IND&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 240 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VARIABLE.TICK.SIZE is more than 240 characters long: (&lt;VARIABLE.TICK.SIZE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 4 characters, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OPERATING.MIC is more than 4 characters long: (&lt;OPERATING.MIC&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>We decided not to check this attribute against the Market-table with ISO-10383 as provider..</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must be a valid Isin. If not, warning message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF9900"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EXCH.PRODUCT.ROOT.ISIN is not a valid Isin: (&lt;EXCH.PRODUCT.ROOT.ISIN&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and more than 1 character, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FUND.RECORD.STATUS is more than 1 character long: (&lt;FUND.RECORD.STATUS&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ENUM.MKT.SUB.ID is not an integer: (&lt;ENUM.MKT.SUB.ID&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must contain of digits and a maximum of one decimal point. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TICK.SIZE is not a float: (&lt;TICK.SIZE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given, it must contain of digits and a maximum of one decimal point. If not, error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NOMINAL.VALUE is not a float: (&lt;NOMINAL.VALUE&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VOLUME.UNITS is not an integer: (&lt;VOLUME.UNITS&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If given and not exists of digits only, than error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RECORD.STALE.IND is not an integer: (&lt;RECORD.STALE.IND&gt;).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>FeedId</t>
-  </si>
-  <si>
-    <t>ProviderId</t>
-  </si>
-  <si>
-    <t>ProviderCode</t>
-  </si>
-  <si>
-    <t>Schema Name</t>
-  </si>
-  <si>
-    <t>FileType</t>
-  </si>
-  <si>
-    <t>Embargo</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>IDC</t>
-  </si>
-  <si>
-    <t>idc</t>
-  </si>
-  <si>
-    <t>"-"</t>
-  </si>
-  <si>
-    <t>CSP CTF listing information</t>
-  </si>
-  <si>
-    <t>CSV with "|" as separator and a header record.</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The file produced by the CtfSnapshotHandler is directly picked up by Nifi processes, the name of the resulting file is made up by the BIGHImportTransporter.
-Format of the filenames are:
-Listing-${ctfsource}-${now():format('yyyyMMddHHmmss')}.csv
-</t>
-  </si>
-  <si>
-    <t>№</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>Add 3512 token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,8 +1850,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Showcard Gothic"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1742,18 +1903,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFDD"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1813,11 +1986,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,29 +2109,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,13 +2176,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2159,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="5">
         <v>63</v>
@@ -2179,7 +2496,7 @@
     </row>
     <row r="2" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5">
         <v>3</v>
@@ -2187,42 +2504,42 @@
     </row>
     <row r="3" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2232,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,14 +2560,14 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2265,14 +2582,14 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2287,11 +2604,13 @@
       <c r="E2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -2306,11 +2625,13 @@
       <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -2325,22 +2646,26 @@
       <c r="E4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -2352,14 +2677,18 @@
       <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -2371,14 +2700,16 @@
       <c r="D7" s="2">
         <v>52522</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -2391,13 +2722,15 @@
         <v>20171222</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -2410,13 +2743,15 @@
         <v>17024.270456999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -2429,13 +2764,15 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -2448,13 +2785,15 @@
         <v>4205</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -2467,13 +2806,15 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -2486,13 +2827,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -2505,13 +2848,15 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -2524,13 +2869,15 @@
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -2543,13 +2890,15 @@
         <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -2562,13 +2911,15 @@
         <v>1000</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -2581,13 +2932,15 @@
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -2600,13 +2953,15 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -2619,13 +2974,15 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -2638,13 +2995,15 @@
         <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -2657,13 +3016,15 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -2676,13 +3037,15 @@
         <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -2695,13 +3058,15 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
       <c r="B25" s="3">
@@ -2714,13 +3079,15 @@
         <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -2733,13 +3100,15 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -2752,13 +3121,15 @@
         <v>980</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -2771,13 +3142,15 @@
         <v>3840</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -2790,13 +3163,15 @@
         <v>8000830083508350</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -2809,13 +3184,15 @@
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -2828,13 +3205,15 @@
         <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -2847,13 +3226,15 @@
         <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -2866,13 +3247,15 @@
         <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -2885,13 +3268,15 @@
         <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
       <c r="B35" s="2">
@@ -2904,13 +3289,15 @@
         <v>16</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="16">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -2923,13 +3310,15 @@
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -2942,13 +3331,15 @@
         <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="16">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -2961,13 +3352,15 @@
         <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="16">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -2980,13 +3373,15 @@
         <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="16">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -2999,13 +3394,15 @@
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -3018,13 +3415,15 @@
         <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
       <c r="B42" s="3">
@@ -3037,13 +3436,15 @@
         <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="16">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -3056,13 +3457,15 @@
         <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="16">
         <v>42</v>
       </c>
       <c r="B44" s="2">
@@ -3075,13 +3478,15 @@
         <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="16">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -3094,13 +3499,15 @@
         <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -3113,13 +3520,17 @@
         <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -3132,13 +3543,15 @@
         <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
       <c r="B48" s="2">
@@ -3151,13 +3564,15 @@
         <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -3170,13 +3585,15 @@
         <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
       <c r="B50" s="2">
@@ -3189,86 +3606,245 @@
         <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3685</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3696</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3914</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3696</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5076</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3914</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>5076</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
+        <v>53</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B55:C57"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CtfListingSnapshotValidator.xlsx
+++ b/CtfListingSnapshotValidator.xlsx
@@ -1778,7 +1778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1880,6 +1880,12 @@
       <color rgb="FF333333"/>
       <name val="Showcard Gothic"/>
       <family val="5"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2089,7 +2095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2152,6 +2158,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2176,22 +2200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2552,7 +2561,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C57"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,13 +2661,13 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="19" t="s">
         <v>145</v>
       </c>
@@ -3696,24 +3705,24 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="28">
         <v>53</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="28" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="21" t="s">
         <v>153</v>
       </c>
@@ -3724,14 +3733,14 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="21" t="s">
         <v>154</v>
       </c>
       <c r="E57" s="21"/>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="36" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="5" t="s">
